--- a/hdw/Power_Board/LTC7851_Demo/LTC7851_Demo_bom_.xlsx
+++ b/hdw/Power_Board/LTC7851_Demo/LTC7851_Demo_bom_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\Demo Boards\LTC7851_Demo\hdw\LTC7851_Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\Electronic_Display\hdw\Power_Board\LTC7851_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F803F93F-8722-4B94-8CAC-6803440A70A2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A7087A-B876-41D1-AE95-F2947F016697}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTC7851_Demo_bom_" sheetId="1" r:id="rId1"/>
@@ -304,9 +304,6 @@
     <t>IPC100N04S51R7ATMA1</t>
   </si>
   <si>
-    <t>BSC123N10LSGATMA1CT-ND</t>
-  </si>
-  <si>
     <t>R301</t>
   </si>
   <si>
@@ -554,12 +551,15 @@
   </si>
   <si>
     <t>SIC779CD-T1-GE3CT-ND</t>
+  </si>
+  <si>
+    <t>IPC100N04S51R7ATMA1CT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
@@ -1403,11 +1403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1981,13 +1981,13 @@
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E38" s="3">
         <v>603</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="39" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="3">
         <v>402</v>
@@ -2021,16 +2021,16 @@
     </row>
     <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C40" s="2">
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" s="3">
         <v>402</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="41" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="2">
         <v>10</v>
@@ -2047,7 +2047,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E41" s="3">
         <v>603</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="42" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" s="2">
         <v>10</v>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="3">
         <v>402</v>
@@ -2072,16 +2072,16 @@
     </row>
     <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E43" s="3">
         <v>603</v>
@@ -2089,16 +2089,16 @@
     </row>
     <row r="44" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E44" s="3">
         <v>402</v>
@@ -2106,16 +2106,16 @@
     </row>
     <row r="45" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C45" s="2">
         <v>11</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E45" s="3">
         <v>603</v>
@@ -2123,16 +2123,16 @@
     </row>
     <row r="46" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E46" s="3">
         <v>402</v>
@@ -2140,16 +2140,16 @@
     </row>
     <row r="47" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E47" s="3">
         <v>402</v>
@@ -2157,16 +2157,16 @@
     </row>
     <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C48" s="2">
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E48" s="3">
         <v>603</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" s="2">
         <v>2</v>
@@ -2183,7 +2183,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" s="3">
         <v>603</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B50" s="2">
         <v>200</v>
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E50" s="3">
         <v>603</v>
@@ -2208,16 +2208,16 @@
     </row>
     <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E51" s="3">
         <v>603</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B52" s="2">
         <v>324</v>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52" s="3">
         <v>402</v>
@@ -2242,16 +2242,16 @@
     </row>
     <row r="53" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E53" s="3">
         <v>603</v>
@@ -2259,16 +2259,16 @@
     </row>
     <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E54" s="3">
         <v>603</v>
@@ -2276,16 +2276,16 @@
     </row>
     <row r="55" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C55" s="2">
         <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E55" s="3">
         <v>2512</v>
@@ -2293,16 +2293,16 @@
     </row>
     <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E56" s="3">
         <v>603</v>
@@ -2310,16 +2310,16 @@
     </row>
     <row r="57" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E57" s="3">
         <v>402</v>
@@ -2327,16 +2327,16 @@
     </row>
     <row r="58" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E58" s="3">
         <v>402</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B59" s="2">
         <v>680</v>
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E59" s="3">
         <v>603</v>
@@ -2361,16 +2361,16 @@
     </row>
     <row r="60" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E60" s="3">
         <v>603</v>
@@ -2378,121 +2378,121 @@
     </row>
     <row r="61" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="C62" s="2">
         <v>3</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C66" s="2">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C68" s="2">
         <v>4</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E68" s="3"/>
     </row>

--- a/hdw/Power_Board/LTC7851_Demo/LTC7851_Demo_bom_.xlsx
+++ b/hdw/Power_Board/LTC7851_Demo/LTC7851_Demo_bom_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\Electronic_Display\hdw\Power_Board\LTC7851_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A7087A-B876-41D1-AE95-F2947F016697}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0499D7D3-13EC-47C9-A67F-C1C57BCEFC02}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="219">
   <si>
     <t>References</t>
   </si>
@@ -37,15 +37,42 @@
     <t>Digi-Key PN</t>
   </si>
   <si>
+    <t>display_footprint</t>
+  </si>
+  <si>
+    <t>Dielectric</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>Ampacity</t>
+  </si>
+  <si>
+    <t>Wattage</t>
+  </si>
+  <si>
     <t>C207 C301 C302 C303 C304 C305 C411 C413 C506 C508 C606 C608 C706 C708 C802 C803 C804 C1102</t>
   </si>
   <si>
     <t>0.1uF</t>
   </si>
   <si>
+    <t>C_0603</t>
+  </si>
+  <si>
     <t>490-4779-1-ND</t>
   </si>
   <si>
+    <t>X7R</t>
+  </si>
+  <si>
+    <t>50V</t>
+  </si>
+  <si>
     <t>C201</t>
   </si>
   <si>
@@ -55,10 +82,19 @@
     <t>0.22uF</t>
   </si>
   <si>
+    <t>C_0402</t>
+  </si>
+  <si>
     <t>1276-1049-1-ND</t>
   </si>
   <si>
-    <t>C401 C402 C406</t>
+    <t>X5R</t>
+  </si>
+  <si>
+    <t>10V</t>
+  </si>
+  <si>
+    <t>C402 C406</t>
   </si>
   <si>
     <t>100pF</t>
@@ -73,18 +109,33 @@
     <t>100uF</t>
   </si>
   <si>
+    <t>CP_Tantalum_Case-X_EIA-7343-43_Reflow</t>
+  </si>
+  <si>
     <t>718-1102-1-ND</t>
   </si>
   <si>
+    <t>16V</t>
+  </si>
+  <si>
     <t>C405 C407 C408 C410 C412 C420 C501 C502 C503 C505 C507 C515 C601 C602 C603 C605 C607 C615 C701 C702 C703 C705 C707 C715 C805</t>
   </si>
   <si>
+    <t>CP_Tantalum_Case-B_EIA-3528-21_Reflow</t>
+  </si>
+  <si>
     <t>478-9994-1-ND</t>
   </si>
   <si>
+    <t>6.3V</t>
+  </si>
+  <si>
     <t>C417 C419 C512 C514 C612 C614 C712 C714</t>
   </si>
   <si>
+    <t>C_1210</t>
+  </si>
+  <si>
     <t>587-3432-1-ND</t>
   </si>
   <si>
@@ -115,6 +166,9 @@
     <t>311-1080-1-ND</t>
   </si>
   <si>
+    <t>C401</t>
+  </si>
+  <si>
     <t>C409 C414 C509 C604 C609 C704 C709 C1101</t>
   </si>
   <si>
@@ -127,6 +181,9 @@
     <t>C504</t>
   </si>
   <si>
+    <t>C_0603_HandSoldering</t>
+  </si>
+  <si>
     <t>C404</t>
   </si>
   <si>
@@ -145,6 +202,9 @@
     <t>445-1436-1-ND</t>
   </si>
   <si>
+    <t>25V</t>
+  </si>
+  <si>
     <t>C403</t>
   </si>
   <si>
@@ -160,6 +220,9 @@
     <t>24V</t>
   </si>
   <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
     <t>SMAJ24CALFCT-ND</t>
   </si>
   <si>
@@ -169,6 +232,9 @@
     <t>Green</t>
   </si>
   <si>
+    <t>LED_0603</t>
+  </si>
+  <si>
     <t>160-1446-1-ND</t>
   </si>
   <si>
@@ -187,6 +253,9 @@
     <t>+12V IN</t>
   </si>
   <si>
+    <t>Wuerth_7461096_M4_Shank_9pos</t>
+  </si>
+  <si>
     <t>732-3214-ND</t>
   </si>
   <si>
@@ -202,6 +271,9 @@
     <t>CLKOUT</t>
   </si>
   <si>
+    <t>Pin_Header_Straight_1x02_Pitch2.54mm</t>
+  </si>
+  <si>
     <t>J1101</t>
   </si>
   <si>
@@ -250,6 +322,9 @@
     <t>RUN</t>
   </si>
   <si>
+    <t>Pin_Header_Straight_1x03_Pitch2.54mm</t>
+  </si>
+  <si>
     <t>J303</t>
   </si>
   <si>
@@ -271,15 +346,21 @@
     <t>L401 L501 L601 L701</t>
   </si>
   <si>
-    <t>0.47uH</t>
-  </si>
-  <si>
-    <t>541-2595-1-ND</t>
+    <t>1uH</t>
+  </si>
+  <si>
+    <t>L_Vishay_IHLP-4040</t>
+  </si>
+  <si>
+    <t>541-1306-1-ND</t>
   </si>
   <si>
     <t>IHLP4040</t>
   </si>
   <si>
+    <t>25A</t>
+  </si>
+  <si>
     <t>MK1001 MK1002 MK1009 MK1010</t>
   </si>
   <si>
@@ -304,25 +385,43 @@
     <t>IPC100N04S51R7ATMA1</t>
   </si>
   <si>
+    <t>TDSON-8-1</t>
+  </si>
+  <si>
+    <t>BSC123N10LSGATMA1CT-ND</t>
+  </si>
+  <si>
     <t>R301</t>
   </si>
   <si>
+    <t>R_0603</t>
+  </si>
+  <si>
     <t>311-0.0GRCT-ND</t>
   </si>
   <si>
+    <t>1/10W</t>
+  </si>
+  <si>
     <t>R408 R412 R413 R414 R504 R505 R604 R605 R704 R705</t>
   </si>
   <si>
+    <t>R_0402</t>
+  </si>
+  <si>
     <t>RMCF0402ZT0R00CT-ND</t>
   </si>
   <si>
+    <t>1/16W</t>
+  </si>
+  <si>
     <t>R407 R503 R603 R703</t>
   </si>
   <si>
-    <t>1.4k</t>
-  </si>
-  <si>
-    <t>RMCF0402FT1K40CT-ND</t>
+    <t>1.96k</t>
+  </si>
+  <si>
+    <t>311-1.96KLRCT-ND</t>
   </si>
   <si>
     <t>R205 R206 R1102 R1103 R1104 R1201 R1202 R1301 R1302</t>
@@ -430,15 +529,30 @@
     <t>P51.1KHCT-ND</t>
   </si>
   <si>
+    <t>R401</t>
+  </si>
+  <si>
+    <t>59k</t>
+  </si>
+  <si>
+    <t>P59KDCCT-ND</t>
+  </si>
+  <si>
     <t>R1107 R1108 R1205 R1206 R1305 R1306</t>
   </si>
   <si>
     <t>5m</t>
   </si>
   <si>
+    <t>R_2512</t>
+  </si>
+  <si>
     <t>YAG2145CT-ND</t>
   </si>
   <si>
+    <t>2W</t>
+  </si>
+  <si>
     <t>R201</t>
   </si>
   <si>
@@ -457,15 +571,6 @@
     <t>RMCF0402FT6K04CT-ND</t>
   </si>
   <si>
-    <t>R401</t>
-  </si>
-  <si>
-    <t>66.5k</t>
-  </si>
-  <si>
-    <t>RMCF0402FT66K5CT-ND</t>
-  </si>
-  <si>
     <t>R802</t>
   </si>
   <si>
@@ -487,6 +592,9 @@
     <t>1:1 Pulse Transformer</t>
   </si>
   <si>
+    <t>Murata_78601_9C</t>
+  </si>
+  <si>
     <t>811-2650-ND</t>
   </si>
   <si>
@@ -496,6 +604,9 @@
     <t>74LVC1G06</t>
   </si>
   <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
     <t>296-8484-1-ND</t>
   </si>
   <si>
@@ -514,6 +625,9 @@
     <t>U801</t>
   </si>
   <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
     <t>LM1117IMPX-ADJ/NOPBCT-ND</t>
   </si>
   <si>
@@ -523,6 +637,9 @@
     <t>U1101</t>
   </si>
   <si>
+    <t>DFN-8-1EP_3x3mm_Pitch0.5mm</t>
+  </si>
+  <si>
     <t>LT1010CDD#PBF-ND</t>
   </si>
   <si>
@@ -532,6 +649,9 @@
     <t>U201</t>
   </si>
   <si>
+    <t>DFN-8-1EP_2x3mm_Pitch0.5mm</t>
+  </si>
+  <si>
     <t>LTC4365IDDB#TRMPBFCT-ND</t>
   </si>
   <si>
@@ -541,6 +661,9 @@
     <t>U301</t>
   </si>
   <si>
+    <t>QFN-58-1EP_9x5mm_Pitch0.4mm</t>
+  </si>
+  <si>
     <t>LTC7851IUHH#PBF-ND</t>
   </si>
   <si>
@@ -550,10 +673,10 @@
     <t>U401 U501 U601 U701</t>
   </si>
   <si>
+    <t>MLP66-40_6x6mm_Pitch0.5mm</t>
+  </si>
+  <si>
     <t>SIC779CD-T1-GE3CT-ND</t>
-  </si>
-  <si>
-    <t>IPC100N04S51R7ATMA1CT-ND</t>
   </si>
 </sst>
 </file>
@@ -1040,15 +1163,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1404,1100 +1522,1534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
+        <v>603</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>603</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2">
+        <v>402</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2">
+        <v>402</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7343</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3528</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1210</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2">
+        <v>603</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3528</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2">
+        <v>603</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2">
+        <v>402</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2">
+        <v>603</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2">
+        <v>603</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2">
+        <v>402</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1210</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="2">
+        <v>402</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="2">
+        <v>603</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="2">
+        <v>402</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="2">
+        <v>402</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="2">
+        <v>603</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="2">
+        <v>402</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="2">
+        <v>603</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="2">
+        <v>402</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="2">
+        <v>603</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="2">
+        <v>402</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="2">
+        <v>402</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="2">
+        <v>603</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" s="2">
+        <v>603</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="2">
+        <v>603</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="2">
+        <v>603</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53">
+        <v>324</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="2">
+        <v>402</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="2">
+        <v>603</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>168</v>
+      </c>
+      <c r="F55" s="2">
+        <v>603</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" s="2">
+        <v>402</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="E57" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2512</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K57" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>179</v>
+      </c>
+      <c r="F58" s="2">
         <v>603</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="I58" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="2">
+        <v>402</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60">
+        <v>680</v>
+      </c>
+      <c r="C60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" s="2">
         <v>603</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="I60" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" s="2">
+        <v>603</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3528</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="3">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="2">
-        <v>4</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="2">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="2">
-        <v>4</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="2">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2">
-        <v>10</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="3">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="2">
-        <v>4</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="3">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="2">
-        <v>10</v>
-      </c>
-      <c r="C41" s="2">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="2">
-        <v>10</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="3">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="3">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="3">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E47" s="3">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="2">
-        <v>4</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="2">
-        <v>2</v>
-      </c>
-      <c r="C49" s="2">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="2">
-        <v>200</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" s="2">
-        <v>324</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="3">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="2">
-        <v>6</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E55" s="3">
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" s="3">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" s="3">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="2">
-        <v>680</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E59" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E60" s="3">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="2">
-        <v>3</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C66" s="2">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C68" s="2">
-        <v>4</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E68" s="3"/>
+      <c r="E69" t="s">
+        <v>218</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>